--- a/Document/発注関連/発注書.xlsx
+++ b/Document/発注関連/発注書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\Campus\FrenchCruller\Mr.Driller\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\Campus\FrenchCruller\Mr.Driller\Document\発注関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19932" windowHeight="10212"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -528,6 +528,42 @@
     <t>ススムの顔</t>
     <rPh sb="4" eb="5">
       <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復活時Ａ</t>
+    <rPh sb="0" eb="2">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復活時Ｂ</t>
+    <rPh sb="0" eb="2">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加の注文申し訳ないです！</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -536,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +592,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -584,7 +636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,6 +651,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,388 +943,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B68" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B40:B41"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
